--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H2">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I2">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J2">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>352.2534702647682</v>
+        <v>397.4174169336767</v>
       </c>
       <c r="R2">
-        <v>352.2534702647682</v>
+        <v>1589.669667734707</v>
       </c>
       <c r="S2">
-        <v>0.1762679284241588</v>
+        <v>0.1776341053536912</v>
       </c>
       <c r="T2">
-        <v>0.1762679284241588</v>
+        <v>0.1099606452280144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H3">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I3">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J3">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>90.11522873904777</v>
+        <v>95.02018205185449</v>
       </c>
       <c r="R3">
-        <v>90.11522873904777</v>
+        <v>570.121092311127</v>
       </c>
       <c r="S3">
-        <v>0.04509373513726291</v>
+        <v>0.04247127657251838</v>
       </c>
       <c r="T3">
-        <v>0.04509373513726291</v>
+        <v>0.03943642156673149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H4">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I4">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J4">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>17.56918972244706</v>
+        <v>17.918856097554</v>
       </c>
       <c r="R4">
-        <v>17.56918972244706</v>
+        <v>107.513136585324</v>
       </c>
       <c r="S4">
-        <v>0.008791637096262019</v>
+        <v>0.008009211061783273</v>
       </c>
       <c r="T4">
-        <v>0.008791637096262019</v>
+        <v>0.007436899696436068</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H5">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I5">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J5">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>24.96671933216728</v>
+        <v>25.56052326137</v>
       </c>
       <c r="R5">
-        <v>24.96671933216728</v>
+        <v>153.36313956822</v>
       </c>
       <c r="S5">
-        <v>0.01249336704311438</v>
+        <v>0.011424815542655</v>
       </c>
       <c r="T5">
-        <v>0.01249336704311438</v>
+        <v>0.01060843653458314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H6">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I6">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J6">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>264.2029734591801</v>
+        <v>286.5109231663844</v>
       </c>
       <c r="R6">
-        <v>264.2029734591801</v>
+        <v>1719.065538998306</v>
       </c>
       <c r="S6">
-        <v>0.132207386857391</v>
+        <v>0.1280621063450129</v>
       </c>
       <c r="T6">
-        <v>0.132207386857391</v>
+        <v>0.1189112176537072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.5940519578547</v>
+        <v>71.5940935</v>
       </c>
       <c r="H7">
-        <v>71.5940519578547</v>
+        <v>143.188187</v>
       </c>
       <c r="I7">
-        <v>0.3964419714929158</v>
+        <v>0.3871779756686048</v>
       </c>
       <c r="J7">
-        <v>0.3964419714929158</v>
+        <v>0.2984720157128297</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>43.14124936980189</v>
+        <v>43.7980446690925</v>
       </c>
       <c r="R7">
-        <v>43.14124936980189</v>
+        <v>175.19217867637</v>
       </c>
       <c r="S7">
-        <v>0.02158791693472667</v>
+        <v>0.01957646079294412</v>
       </c>
       <c r="T7">
-        <v>0.02158791693472667</v>
+        <v>0.01211839503335743</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H8">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I8">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J8">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>32.42749204854345</v>
+        <v>39.89710429341216</v>
       </c>
       <c r="R8">
-        <v>32.42749204854345</v>
+        <v>239.382625760473</v>
       </c>
       <c r="S8">
-        <v>0.01622674389294536</v>
+        <v>0.01783285312970044</v>
       </c>
       <c r="T8">
-        <v>0.01622674389294536</v>
+        <v>0.01655857724360303</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H9">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I9">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J9">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>8.29576174563076</v>
+        <v>9.539164494983664</v>
       </c>
       <c r="R9">
-        <v>8.29576174563076</v>
+        <v>85.85248045485299</v>
       </c>
       <c r="S9">
-        <v>0.004151206052004571</v>
+        <v>0.00426373097576371</v>
       </c>
       <c r="T9">
-        <v>0.004151206052004571</v>
+        <v>0.00593858858657961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H10">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I10">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J10">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>1.617371603452977</v>
+        <v>1.798890637604</v>
       </c>
       <c r="R10">
-        <v>1.617371603452977</v>
+        <v>16.190015738436</v>
       </c>
       <c r="S10">
-        <v>0.0008093340906433949</v>
+        <v>0.000804052151275607</v>
       </c>
       <c r="T10">
-        <v>0.0008093340906433949</v>
+        <v>0.001119895921136259</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H11">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I11">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J11">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>2.298367967854329</v>
+        <v>2.566044714953334</v>
       </c>
       <c r="R11">
-        <v>2.298367967854329</v>
+        <v>23.09440243458</v>
       </c>
       <c r="S11">
-        <v>0.001150105235714541</v>
+        <v>0.001146947863420823</v>
       </c>
       <c r="T11">
-        <v>0.001150105235714541</v>
+        <v>0.001597486222707274</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H12">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I12">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J12">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>24.32180388346341</v>
+        <v>28.76309818268156</v>
       </c>
       <c r="R12">
-        <v>24.32180388346341</v>
+        <v>258.8678836441341</v>
       </c>
       <c r="S12">
-        <v>0.01217065081815761</v>
+        <v>0.0128562740211602</v>
       </c>
       <c r="T12">
-        <v>0.01217065081815761</v>
+        <v>0.01790641168544331</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.59075281456083</v>
+        <v>7.187397666666667</v>
       </c>
       <c r="H13">
-        <v>6.59075281456083</v>
+        <v>21.562193</v>
       </c>
       <c r="I13">
-        <v>0.03649536474014751</v>
+        <v>0.0388691572567401</v>
       </c>
       <c r="J13">
-        <v>0.03649536474014751</v>
+        <v>0.0449458250902993</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>3.971465546817647</v>
+        <v>4.396926459571667</v>
       </c>
       <c r="R13">
-        <v>3.971465546817647</v>
+        <v>26.38155875743</v>
       </c>
       <c r="S13">
-        <v>0.001987324650682037</v>
+        <v>0.00196529911541932</v>
       </c>
       <c r="T13">
-        <v>0.001987324650682037</v>
+        <v>0.00182486543082981</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H14">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I14">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J14">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>141.8556735128898</v>
+        <v>175.4565647512123</v>
       </c>
       <c r="R14">
-        <v>141.8556735128898</v>
+        <v>1052.739388507274</v>
       </c>
       <c r="S14">
-        <v>0.07098469657811014</v>
+        <v>0.07842401611003103</v>
       </c>
       <c r="T14">
-        <v>0.07098469657811014</v>
+        <v>0.07282009889649844</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H15">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I15">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J15">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>36.29022151843459</v>
+        <v>41.95063933907932</v>
       </c>
       <c r="R15">
-        <v>36.29022151843459</v>
+        <v>377.555754051714</v>
       </c>
       <c r="S15">
-        <v>0.0181596569206265</v>
+        <v>0.0187507239755834</v>
       </c>
       <c r="T15">
-        <v>0.0181596569206265</v>
+        <v>0.02611629017507583</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H16">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I16">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J16">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>7.075272357942033</v>
+        <v>7.911029565352</v>
       </c>
       <c r="R16">
-        <v>7.075272357942033</v>
+        <v>71.199266088168</v>
       </c>
       <c r="S16">
-        <v>0.003540472151016004</v>
+        <v>0.003536001693409481</v>
       </c>
       <c r="T16">
-        <v>0.003540472151016004</v>
+        <v>0.004924996304403668</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H17">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I17">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J17">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>10.05432475543764</v>
+        <v>11.28476361022667</v>
       </c>
       <c r="R17">
-        <v>10.05432475543764</v>
+        <v>101.56287249204</v>
       </c>
       <c r="S17">
-        <v>0.00503119243938926</v>
+        <v>0.005043963355951852</v>
       </c>
       <c r="T17">
-        <v>0.00503119243938926</v>
+        <v>0.00702530797253599</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H18">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I18">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J18">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>106.3969383069232</v>
+        <v>126.4922476984991</v>
       </c>
       <c r="R18">
-        <v>106.3969383069232</v>
+        <v>1138.430229286492</v>
       </c>
       <c r="S18">
-        <v>0.0532411160972746</v>
+        <v>0.05653838079736249</v>
       </c>
       <c r="T18">
-        <v>0.0532411160972746</v>
+        <v>0.07874750654191272</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>28.8315753209319</v>
+        <v>31.60821133333333</v>
       </c>
       <c r="H19">
-        <v>28.8315753209319</v>
+        <v>94.824634</v>
       </c>
       <c r="I19">
-        <v>0.1596507845121725</v>
+        <v>0.1709359345201494</v>
       </c>
       <c r="J19">
-        <v>0.1596507845121725</v>
+        <v>0.1976594595000447</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N19">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O19">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P19">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q19">
-        <v>17.37337315922215</v>
+        <v>19.33648132422334</v>
       </c>
       <c r="R19">
-        <v>17.37337315922215</v>
+        <v>116.01888794534</v>
       </c>
       <c r="S19">
-        <v>0.00869365032575597</v>
+        <v>0.008642848587811116</v>
       </c>
       <c r="T19">
-        <v>0.00869365032575597</v>
+        <v>0.00802525960961805</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H20">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I20">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J20">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N20">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O20">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P20">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q20">
-        <v>122.1922742498952</v>
+        <v>139.7996879323352</v>
       </c>
       <c r="R20">
-        <v>122.1922742498952</v>
+        <v>838.7981275940109</v>
       </c>
       <c r="S20">
-        <v>0.06114511529233886</v>
+        <v>0.06248642217593065</v>
       </c>
       <c r="T20">
-        <v>0.06114511529233886</v>
+        <v>0.05802135198171276</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H21">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I21">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J21">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N21">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P21">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q21">
-        <v>31.25983325557347</v>
+        <v>33.42528845518567</v>
       </c>
       <c r="R21">
-        <v>31.25983325557347</v>
+        <v>300.827596096671</v>
       </c>
       <c r="S21">
-        <v>0.01564244646533345</v>
+        <v>0.01494013839840554</v>
       </c>
       <c r="T21">
-        <v>0.01564244646533345</v>
+        <v>0.02080884931038571</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H22">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I22">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J22">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N22">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O22">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P22">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q22">
-        <v>6.094529735363724</v>
+        <v>6.303323366828001</v>
       </c>
       <c r="R22">
-        <v>6.094529735363724</v>
+        <v>56.729910301452</v>
       </c>
       <c r="S22">
-        <v>0.003049707729960857</v>
+        <v>0.002817403463744942</v>
       </c>
       <c r="T22">
-        <v>0.003049707729960857</v>
+        <v>0.003924121889652917</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H23">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I23">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J23">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N23">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O23">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P23">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q23">
-        <v>8.660639208077303</v>
+        <v>8.991435762673335</v>
       </c>
       <c r="R23">
-        <v>8.660639208077303</v>
+        <v>80.92292186406002</v>
       </c>
       <c r="S23">
-        <v>0.004333791036577678</v>
+        <v>0.004018912054411065</v>
       </c>
       <c r="T23">
-        <v>0.004333791036577678</v>
+        <v>0.005597601113310817</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H24">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I24">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J24">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N24">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O24">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P24">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q24">
-        <v>91.64867039151171</v>
+        <v>100.7860650821709</v>
       </c>
       <c r="R24">
-        <v>91.64867039151171</v>
+        <v>907.0745857395381</v>
       </c>
       <c r="S24">
-        <v>0.04586107061088074</v>
+        <v>0.04504845973063652</v>
       </c>
       <c r="T24">
-        <v>0.04586107061088074</v>
+        <v>0.06274417178758114</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.8350712483255</v>
+        <v>25.18468366666667</v>
       </c>
       <c r="H25">
-        <v>24.8350712483255</v>
+        <v>75.554051</v>
       </c>
       <c r="I25">
-        <v>0.1375207065197126</v>
+        <v>0.1361977554742582</v>
       </c>
       <c r="J25">
-        <v>0.1375207065197126</v>
+        <v>0.1574904352775969</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N25">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O25">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P25">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q25">
-        <v>14.96515384366733</v>
+        <v>15.40685615650167</v>
       </c>
       <c r="R25">
-        <v>14.96515384366733</v>
+        <v>92.44113693901001</v>
       </c>
       <c r="S25">
-        <v>0.007488575384621027</v>
+        <v>0.006886419651129464</v>
       </c>
       <c r="T25">
-        <v>0.007488575384621027</v>
+        <v>0.006394339194953521</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H26">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I26">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J26">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N26">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O26">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P26">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q26">
-        <v>223.048545536465</v>
+        <v>254.9668776919983</v>
       </c>
       <c r="R26">
-        <v>223.048545536465</v>
+        <v>1529.80126615199</v>
       </c>
       <c r="S26">
-        <v>0.111613677021216</v>
+        <v>0.1139628292164168</v>
       </c>
       <c r="T26">
-        <v>0.111613677021216</v>
+        <v>0.1058194275898956</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H27">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I27">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J27">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N27">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P27">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q27">
-        <v>57.06138447925699</v>
+        <v>60.96109053904333</v>
       </c>
       <c r="R27">
-        <v>57.06138447925699</v>
+        <v>548.6498148513899</v>
       </c>
       <c r="S27">
-        <v>0.02855356407876693</v>
+        <v>0.02724784651573409</v>
       </c>
       <c r="T27">
-        <v>0.02855356407876693</v>
+        <v>0.03795121016007062</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H28">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I28">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J28">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N28">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O28">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P28">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q28">
-        <v>11.12489313703711</v>
+        <v>11.49601048252</v>
       </c>
       <c r="R28">
-        <v>11.12489313703711</v>
+        <v>103.46409434268</v>
       </c>
       <c r="S28">
-        <v>0.005566905744694962</v>
+        <v>0.00513838460567492</v>
       </c>
       <c r="T28">
-        <v>0.005566905744694962</v>
+        <v>0.007156819308294119</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H29">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I29">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J29">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N29">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O29">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P29">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q29">
-        <v>15.80904349834033</v>
+        <v>16.39859384726667</v>
       </c>
       <c r="R29">
-        <v>15.80904349834033</v>
+        <v>147.5873446254</v>
       </c>
       <c r="S29">
-        <v>0.007910858467129718</v>
+        <v>0.007329697751027073</v>
       </c>
       <c r="T29">
-        <v>0.007910858467129718</v>
+        <v>0.0102089131924021</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H30">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I30">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J30">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N30">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O30">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P30">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q30">
-        <v>167.2945589781844</v>
+        <v>183.8137746151578</v>
       </c>
       <c r="R30">
-        <v>167.2945589781844</v>
+        <v>1654.32397153642</v>
       </c>
       <c r="S30">
-        <v>0.08371433594551372</v>
+        <v>0.08215944750830502</v>
       </c>
       <c r="T30">
-        <v>0.08371433594551372</v>
+        <v>0.1144329133394991</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>45.3336886823533</v>
+        <v>45.93186333333333</v>
       </c>
       <c r="H31">
-        <v>45.3336886823533</v>
+        <v>137.79559</v>
       </c>
       <c r="I31">
-        <v>0.2510289112684657</v>
+        <v>0.2483976679457086</v>
       </c>
       <c r="J31">
-        <v>0.2510289112684657</v>
+        <v>0.2872312888746796</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N31">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O31">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P31">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q31">
-        <v>27.3172409552914</v>
+        <v>28.09904705348334</v>
       </c>
       <c r="R31">
-        <v>27.3172409552914</v>
+        <v>168.5942823209</v>
       </c>
       <c r="S31">
-        <v>0.01366957001114436</v>
+        <v>0.01255946234855069</v>
       </c>
       <c r="T31">
-        <v>0.01366957001114436</v>
+        <v>0.01166200528451804</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H32">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I32">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J32">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N32">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O32">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P32">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q32">
-        <v>16.75982246184816</v>
+        <v>18.90869067029475</v>
       </c>
       <c r="R32">
-        <v>16.75982246184816</v>
+        <v>75.634762681179</v>
       </c>
       <c r="S32">
-        <v>0.008386629048355859</v>
+        <v>0.008451638522898547</v>
       </c>
       <c r="T32">
-        <v>0.008386629048355859</v>
+        <v>0.005231808516508821</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H33">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I33">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J33">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N33">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P33">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q33">
-        <v>4.287580853753017</v>
+        <v>4.520957444986499</v>
       </c>
       <c r="R33">
-        <v>4.287580853753017</v>
+        <v>27.125744669919</v>
       </c>
       <c r="S33">
-        <v>0.002145509012229371</v>
+        <v>0.002020737383073244</v>
       </c>
       <c r="T33">
-        <v>0.002145509012229371</v>
+        <v>0.001876342265777223</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H34">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I34">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J34">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N34">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O34">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P34">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q34">
-        <v>0.8359222134147167</v>
+        <v>0.8525597839380001</v>
       </c>
       <c r="R34">
-        <v>0.8359222134147167</v>
+        <v>5.115358703628</v>
       </c>
       <c r="S34">
-        <v>0.0004182961683006223</v>
+        <v>0.0003810695959146569</v>
       </c>
       <c r="T34">
-        <v>0.0004182961683006223</v>
+        <v>0.0003538396404236767</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H35">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I35">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J35">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N35">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O35">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P35">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q35">
-        <v>1.187888321291486</v>
+        <v>1.21614203889</v>
       </c>
       <c r="R35">
-        <v>1.187888321291486</v>
+        <v>7.296852233340001</v>
       </c>
       <c r="S35">
-        <v>0.0005944203003476965</v>
+        <v>0.0005435803612434307</v>
       </c>
       <c r="T35">
-        <v>0.0005944203003476965</v>
+        <v>0.0005047379314061667</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H36">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I36">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J36">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N36">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O36">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P36">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q36">
-        <v>12.57047922264606</v>
+        <v>13.631879703747</v>
       </c>
       <c r="R36">
-        <v>12.57047922264606</v>
+        <v>81.79127822248202</v>
       </c>
       <c r="S36">
-        <v>0.006290278219854829</v>
+        <v>0.006093056449683359</v>
       </c>
       <c r="T36">
-        <v>0.006290278219854829</v>
+        <v>0.005657667067513743</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.40636417076624</v>
+        <v>3.4063695</v>
       </c>
       <c r="H37">
-        <v>3.40636417076624</v>
+        <v>6.812739000000001</v>
       </c>
       <c r="I37">
-        <v>0.01886226146658601</v>
+        <v>0.01842150913453884</v>
       </c>
       <c r="J37">
-        <v>0.01886226146658601</v>
+        <v>0.01420097554454969</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N37">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O37">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P37">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q37">
-        <v>2.052611943543756</v>
+        <v>2.0838635734725</v>
       </c>
       <c r="R37">
-        <v>2.052611943543756</v>
+        <v>8.335454293890001</v>
       </c>
       <c r="S37">
-        <v>0.00102712871749764</v>
+        <v>0.0009314268217256033</v>
       </c>
       <c r="T37">
-        <v>0.00102712871749764</v>
+        <v>0.0005765801229200597</v>
       </c>
     </row>
   </sheetData>
